--- a/public/location_korean.xlsx
+++ b/public/location_korean.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuongYen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CG\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +467,7 @@
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>11</v>
       </c>
@@ -477,8 +477,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>29</v>
       </c>
@@ -488,8 +491,11 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -499,8 +505,11 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -510,8 +519,11 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -521,8 +533,11 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -532,8 +547,11 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
@@ -543,8 +561,11 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -554,8 +575,11 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>34</v>
       </c>
@@ -565,8 +589,11 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
@@ -576,8 +603,11 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -587,8 +617,11 @@
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>38</v>
       </c>
@@ -598,8 +631,11 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -609,8 +645,11 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>33</v>
       </c>
@@ -620,8 +659,11 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>37</v>
       </c>
@@ -631,8 +673,11 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>35</v>
       </c>
@@ -642,8 +687,11 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>39</v>
       </c>
@@ -652,6 +700,9 @@
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/location_korean.xlsx
+++ b/public/location_korean.xlsx
@@ -29,9 +29,6 @@
     <t>Seoul</t>
   </si>
   <si>
-    <t>서울</t>
-  </si>
-  <si>
     <t>Sejong</t>
   </si>
   <si>
@@ -41,39 +38,21 @@
     <t>Busan</t>
   </si>
   <si>
-    <t>부산</t>
-  </si>
-  <si>
     <t>Daegu</t>
   </si>
   <si>
-    <t>대구</t>
-  </si>
-  <si>
     <t>Daejeon</t>
   </si>
   <si>
-    <t>대천</t>
-  </si>
-  <si>
     <t>Gwangju</t>
   </si>
   <si>
-    <t>광주</t>
-  </si>
-  <si>
     <t>Incheon</t>
   </si>
   <si>
-    <t>인천</t>
-  </si>
-  <si>
     <t>Ulsan</t>
   </si>
   <si>
-    <t>울산</t>
-  </si>
-  <si>
     <t>South Chungdeong</t>
   </si>
   <si>
@@ -126,6 +105,27 @@
   </si>
   <si>
     <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>부산광역시</t>
+  </si>
+  <si>
+    <t>대구광역시</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>울산광역시</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -486,10 +486,10 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -500,13 +500,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,13 +514,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,13 +528,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,13 +542,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,13 +556,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,10 +570,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -584,10 +584,10 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -598,10 +598,10 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -612,10 +612,10 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -626,10 +626,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -640,10 +640,10 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -654,10 +654,10 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -668,10 +668,10 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -682,10 +682,10 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -696,10 +696,10 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>15</v>

--- a/public/location_korean.xlsx
+++ b/public/location_korean.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CG\public\"/>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>24</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/location_korean.xlsx
+++ b/public/location_korean.xlsx
@@ -32,9 +32,6 @@
     <t>Sejong</t>
   </si>
   <si>
-    <t>세종</t>
-  </si>
-  <si>
     <t>Busan</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>울산광역시</t>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -500,10 +500,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -514,10 +514,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -528,10 +528,10 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -542,10 +542,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -556,10 +556,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -570,10 +570,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -584,10 +584,10 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -598,10 +598,10 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -612,10 +612,10 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -626,10 +626,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -640,10 +640,10 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -654,10 +654,10 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -668,10 +668,10 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -682,10 +682,10 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -696,10 +696,10 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D17">
         <v>16</v>

--- a/public/location_korean.xlsx
+++ b/public/location_korean.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
